--- a/medicine/Soins infirmiers et profession infirmière/1914_en_santé_et_médecine/1914_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1914_en_santé_et_médecine/1914_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1914 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,21 +523,23 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier : Marcel Duchamp intitule Pharmacie le troisième, et peut-être le premier conçu, de ses ready-made[1],[2].
-28 mars : la loi Labbé rend obligatoire dans toute l'armée la vaccination antityphoïdique[3].
-10 avril :  à la tribune de l'Académie de médecine, Edmond Delorme « conseille aux chirurgiens des interventions exceptionnelles à l'avant et les évacuations les plus rapides possible pour des opératoires secondaires[4] ».
-28 septembre : Delorme revient sur ses précédents conseils : « Les circonstances forcent à concentrer [la chirurgie active] en partie et résolument à l'avant[5]. »
-16 octobre : à l'hôpital de Biarritz, Émile Jeanbrau pratique la première transfusion sanguine[6].
-22 octobre-10 décembre : pic de l'épidémie de fièvre typhoïde de 1914-1915[7].
-10-28 novembre : l'ambulance chirurgicale expérimentale mise sur pied par Maurice Marcille fonctionne près d'Hesdin, à dix kilomètres de la ligne de feu[8].
-17 novembre : Victor Pauchet publie les résultats obtenus en chirurgie par l'emploi de la gaze au formol[9].
-Novembre : Victor Pauchet publie son procédé d'amputation rapide « en saucisson[10] ».
-7 décembre : dépêche prescrivant l'organisation de l'appareillage de tous les mutilés[11].
-Chagall peint Pharmacie à Vitebsk, représentation de l'officine de sa ville natale[12].
-Le Syndicat national de médecine sociale, créé en 1909, s'éteint avec la mobilisation de ses membres fondateurs[13].
-Eward Kendall isole la thyroxine[14].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier : Marcel Duchamp intitule Pharmacie le troisième, et peut-être le premier conçu, de ses ready-made,.
+28 mars : la loi Labbé rend obligatoire dans toute l'armée la vaccination antityphoïdique.
+10 avril :  à la tribune de l'Académie de médecine, Edmond Delorme « conseille aux chirurgiens des interventions exceptionnelles à l'avant et les évacuations les plus rapides possible pour des opératoires secondaires ».
+28 septembre : Delorme revient sur ses précédents conseils : « Les circonstances forcent à concentrer [la chirurgie active] en partie et résolument à l'avant. »
+16 octobre : à l'hôpital de Biarritz, Émile Jeanbrau pratique la première transfusion sanguine.
+22 octobre-10 décembre : pic de l'épidémie de fièvre typhoïde de 1914-1915.
+10-28 novembre : l'ambulance chirurgicale expérimentale mise sur pied par Maurice Marcille fonctionne près d'Hesdin, à dix kilomètres de la ligne de feu.
+17 novembre : Victor Pauchet publie les résultats obtenus en chirurgie par l'emploi de la gaze au formol.
+Novembre : Victor Pauchet publie son procédé d'amputation rapide « en saucisson ».
+7 décembre : dépêche prescrivant l'organisation de l'appareillage de tous les mutilés.
+Chagall peint Pharmacie à Vitebsk, représentation de l'officine de sa ville natale.
+Le Syndicat national de médecine sociale, créé en 1909, s'éteint avec la mobilisation de ses membres fondateurs.
+Eward Kendall isole la thyroxine.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Nobel de médecine : Robert Bárány, « pour ses travaux sur la physiologie et la pathologie de l'appareil vestibulaire de l'oreille[15] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Robert Bárány, « pour ses travaux sur la physiologie et la pathologie de l'appareil vestibulaire de l'oreille ».</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>William Seaman Bainbridge (en), The Cancer Problem[16].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>William Seaman Bainbridge (en), The Cancer Problem.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,21 +631,23 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 janvier : Edmond Kaiser, pharmacien délégué médical vaudois, fondateur de l'ONG humanitaire Terre des hommes, mort le 4 mars 2000.
 18 janvier : Marc Sauter (mort en 1983), anthropologue suisse.
 22 février : Renato Dulbecco (mort en 2012), virologue italo-américain, lauréat du prix Nobel de médecine en 1975 « pour ses travaux sur les oncovirus et les mécanismes de la cancérogenèse ».
 25 février : Gisela Pankow (morte en 1998), psychanalyste française.
-19 mars : Pierre Marion (mort en 2000), chirurgien français[17].
+19 mars : Pierre Marion (mort en 2000), chirurgien français.
 24 mars : Jean Solinhac (mort en 1981), homme politique français, docteur en médecine et en pharmacie, a donné son nom à l'hôpital d'Espalion.
 3 avril : Alfred Iarbous (mort en 1986), psychologue russe, connu pour ses études sur les mouvements des yeux.
 8 avril : Emma Üffing (morte en 1955), infirmière allemande.
 10 avril : Jean Reverzy (mort en 1959), médecin, romancier et résistant français.
-16 mai : Anne-Mary Menut (morte en 1944), pharmacienne et résistante française[18].
+16 mai : Anne-Mary Menut (morte en 1944), pharmacienne et résistante française.
 29 juillet : Marc Oraison (mort en 1979), médecin et théologien français.
 3 août : Rolf Hassler (mort en 1984), neuropathologiste allemand.
-19 août : Gaston Galloux (mort en 1980), pharmacien et homme politique français[19].
+19 août : Gaston Galloux (mort en 1980), pharmacien et homme politique français.
 1er octobre : Charles Dubost (mort en 1991 ), chirurgien français.
 21 novembre : Henri Laborit (mort en 1995), chirurgien et neurobiologiste français.
 25 décembre : Oscar Lewis (mort en 1970), anthropologue américain, auteur du concept de « culture de la pauvreté ».
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1914_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1914_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,17 +680,19 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>15 février : Roswell Park (en) (né en 1852), chirurgien américain.
-4 avril : Alfred Conor (né en 1870), médecin et biologiste français[20].
+4 avril : Alfred Conor (né en 1870), médecin et biologiste français.
 29 juillet : Paul Reclus (né en 1847), chirurgien français.
 30 septembre : Lucien Bertholon (né en 1854), médecin et anthropologue français, spécialiste de l'Afrique du Nord.
 22 octobre : Émile Reymond (né en 1865), médecin, homme politique et aviateur français.
 Décembre : Albert Freeman Africanus King (né en 1841), professeur d'obstétrique américain, d'origine britannique.
 Date inconnue
-Henri Bourru (né en 1840), médecin français, officier du corps de santé de la Marine[21].
-Émile Gilbert (né en 1836), pharmacien français et historien de la pharmacie[22].
+Henri Bourru (né en 1840), médecin français, officier du corps de santé de la Marine.
+Émile Gilbert (né en 1836), pharmacien français et historien de la pharmacie.
 Léon Lajaunie (né en 1841), pharmacien français.</t>
         </is>
       </c>
